--- a/testcase/demo3.xlsx
+++ b/testcase/demo3.xlsx
@@ -42,7 +42,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAACF91"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCF91"/>
       </patternFill>
     </fill>
     <fill>
@@ -77,14 +82,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,4 +427,431 @@
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F10" sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <cols>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="65.21875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="38" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="22.6640625" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>UI自动化测试用例</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>参数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>type_=Chrome</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>启动Chrome浏览器</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>url=http://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>访问百度首页</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>by=id;value=chat-textarea;txt=黄财财关键字</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>输入黄财财关键字作为百度的搜索条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>by=id;value=chat-submit-button</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>点击百度一下按钮</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>assert_text</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>by=xpath;value=//*[@id="content_left"]/div[1]/div/div/a[1]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>对测试结果进行断言</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>黄财神关键字</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>time_=2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>强制等待5秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>quit</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>关闭浏览器</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <cols>
+    <col width="26.109375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="29.33203125" customWidth="1" style="4" min="3" max="3"/>
+    <col width="27.77734375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="20.109375" customWidth="1" style="4" min="5" max="5"/>
+    <col width="38.109375" customWidth="1" style="4" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>UI自动化测试用例</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>参数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>type_=Chrome</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>启动Chrome浏览器</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>url=http://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>访问百度首页</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>by=id;value=chat-textarea;txt=黄财财关键字</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>输入黄财财关键字作为百度的搜索条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>by=id;value=chat-submit-button</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>点击百度一下按钮</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>assert_text</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>by=xpath;value=//*[@id="content_left"]/div[1]/div/div/a[1]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>对测试结果进行断言</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>dadasdasd</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>time_=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>强制等待5秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>quit</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>关闭浏览器</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>